--- a/medicine/Psychotrope/John_Molson_(1763-1836)/John_Molson_(1763-1836).xlsx
+++ b/medicine/Psychotrope/John_Molson_(1763-1836)/John_Molson_(1763-1836).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 John Molson, né le 28 décembre 1763 à Moulton (en) en Grande-Bretagne et décédé le 11 janvier 1836 à Boucherville au Bas-Canada, était un brasseur et homme d'affaires montréalais. Il est le fondateur de la brasserie Molson.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en Angleterre, John Molson émigra à Montréal (Canada) en 1782. Lors d'un séjour en Angleterre quelques années plus tard, il acheta quelques pièces d’équipement pour ouvrir une brasserie et revint à Montréal. À l'été 1786, il créait à Montréal la Brasserie Molson.
 En 1816, l'entreprise familiale prend forme avec l'association de John Molson et de ses trois fils : John, Thomas et William.
@@ -547,10 +561,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 4 novembre 1986, le gouvernement du Canada l'honora par une image sur un timbre national.
-Il est membre élu du Panthéon des hommes d'affaires canadiens (Canadian Business Hall of Fame)[1].
+Il est membre élu du Panthéon des hommes d'affaires canadiens (Canadian Business Hall of Fame).
 Au mois de janvier 2001, la faculté de commerce et d'administration de l'Université Concordia fut rebaptisée l'École de gestion John-Molson.
 	Monument funéraire de John Molson au Cimetière Mont-Royal
 </t>
